--- a/data/trans_dic/CoTrAQ_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R2-Provincia-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1546205589659418</v>
+        <v>0.155458960416983</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2933893551813818</v>
+        <v>0.2928890382919234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1491021797316882</v>
+        <v>0.1537766203249216</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2082403162149262</v>
+        <v>0.2091691494988746</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1698142843453499</v>
+        <v>0.1735588345319475</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2867016378833334</v>
+        <v>0.2834446845876671</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3177345587268977</v>
+        <v>0.3226026376446698</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4725403924785218</v>
+        <v>0.4666183454632703</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3422288128310564</v>
+        <v>0.3469838205623074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3956824749968809</v>
+        <v>0.3976609735466523</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2951243546850394</v>
+        <v>0.2933732232316478</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4119182158610872</v>
+        <v>0.4134975637045591</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06796361329824603</v>
+        <v>0.0723465171758028</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1712981163455413</v>
+        <v>0.1687980265049802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07351792689604159</v>
+        <v>0.07396235515781249</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1780062882491456</v>
+        <v>0.1749675064114005</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08499016623518307</v>
+        <v>0.08696974015580598</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1919446453147671</v>
+        <v>0.1891631292404637</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1678596056282278</v>
+        <v>0.1693164648629962</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3061239789363611</v>
+        <v>0.3020075688091731</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2060607715747734</v>
+        <v>0.2075592566138438</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3381238589323823</v>
+        <v>0.3404053915669307</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1648410370914788</v>
+        <v>0.1658110988396023</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2891646357566842</v>
+        <v>0.2975371823230838</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07338794654786923</v>
+        <v>0.06897158978728866</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.173490022659046</v>
+        <v>0.1780735524631637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07608823600002941</v>
+        <v>0.08216752629880167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1607288482046798</v>
+        <v>0.1597681631833191</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08778813428407348</v>
+        <v>0.08432186970759586</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1932200095231322</v>
+        <v>0.1910404116570502</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1791103043588811</v>
+        <v>0.1730460692222917</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3204914954319396</v>
+        <v>0.3291667273502267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2594068835135259</v>
+        <v>0.2511623330585033</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3394001881165395</v>
+        <v>0.3459987680448085</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1826537157611507</v>
+        <v>0.1752103580269621</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.303518426970412</v>
+        <v>0.3096504774933235</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05844435586182815</v>
+        <v>0.05588528581715164</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1002411071320005</v>
+        <v>0.09574238450475202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08445426765103604</v>
+        <v>0.08648319632809329</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1419708711915414</v>
+        <v>0.1351978581113939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08080165735723385</v>
+        <v>0.08242513094988785</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1338064488422625</v>
+        <v>0.1301141838682672</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1758990737131227</v>
+        <v>0.1790269755385988</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2428545377876542</v>
+        <v>0.239946261941153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2394492197168456</v>
+        <v>0.2427159010909015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.337757974358549</v>
+        <v>0.3228480612788598</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1717886964497596</v>
+        <v>0.1756523837917515</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2443378762045743</v>
+        <v>0.2511855124536166</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1356943899741583</v>
+        <v>0.1222226140283966</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08143267901039189</v>
+        <v>0.07735017156990312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2589153669466818</v>
+        <v>0.2578647158265265</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.126444453888732</v>
+        <v>0.1256916316973476</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2070574549779593</v>
+        <v>0.2016864263968563</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1236323636301284</v>
+        <v>0.1238668093623852</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3343745782460199</v>
+        <v>0.3216327943042713</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2478079693591251</v>
+        <v>0.2459212298701688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5377244018626426</v>
+        <v>0.5166782502776084</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3407423360015562</v>
+        <v>0.3454206865649602</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3720979889102669</v>
+        <v>0.3588535921655138</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2580221427600505</v>
+        <v>0.2539538615659602</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03306859275780628</v>
+        <v>0.03388065545488537</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1721976010831962</v>
+        <v>0.1703502208927586</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03683231672378236</v>
+        <v>0.03540098756916416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.202077711131189</v>
+        <v>0.1983391173137038</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04113092974957724</v>
+        <v>0.04280135134632337</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2108559477154844</v>
+        <v>0.2080252238597033</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1265378627124286</v>
+        <v>0.1284230349374796</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3336285635131819</v>
+        <v>0.3312709856647802</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2013515057581416</v>
+        <v>0.2113636882392624</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4087920614598121</v>
+        <v>0.4048574707818558</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1284551132955742</v>
+        <v>0.1224140421376852</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.341899628449391</v>
+        <v>0.3375451772516597</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1043784070599731</v>
+        <v>0.1067774633800227</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3460020114234845</v>
+        <v>0.3350634447363309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1182212610635854</v>
+        <v>0.1201774026757955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3984266315825865</v>
+        <v>0.3911738508272973</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1230120301325176</v>
+        <v>0.1215842327919007</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.384243432380684</v>
+        <v>0.3863336715065737</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1892014134388215</v>
+        <v>0.1965730486316293</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.456632909743066</v>
+        <v>0.4518612410725246</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2422650994308709</v>
+        <v>0.2414523501523455</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5187835332775497</v>
+        <v>0.514217016547066</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1999474593007642</v>
+        <v>0.19377876186018</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.468846395419382</v>
+        <v>0.4672342446882842</v>
       </c>
     </row>
     <row r="25">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0907903827796528</v>
+        <v>0.0893343579411615</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04911195352362348</v>
+        <v>0.04732878738669649</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1082036421947385</v>
+        <v>0.1076151429664084</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1105890609683927</v>
+        <v>0.108208693233599</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1085543541924838</v>
+        <v>0.1071105660715353</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08345285529864616</v>
+        <v>0.08158223749686425</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1621600807160538</v>
+        <v>0.1652749940976593</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1086403835745689</v>
+        <v>0.1092888862551382</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.206507938888219</v>
+        <v>0.1997465016939815</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2029010417223063</v>
+        <v>0.2019568081557193</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1661645597667608</v>
+        <v>0.1637749237662976</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1365423157296747</v>
+        <v>0.1359788834261225</v>
       </c>
     </row>
     <row r="28">
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18254</v>
+        <v>18353</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>39036</v>
+        <v>38969</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12572</v>
+        <v>12966</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20839</v>
+        <v>20932</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>34366</v>
+        <v>35124</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>66836</v>
+        <v>66077</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37510</v>
+        <v>38085</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>62872</v>
+        <v>62084</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28856</v>
+        <v>29257</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>39596</v>
+        <v>39794</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>59725</v>
+        <v>59371</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>96026</v>
+        <v>96395</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11570</v>
+        <v>12316</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29172</v>
+        <v>28746</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8506</v>
+        <v>8557</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20236</v>
+        <v>19890</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>24302</v>
+        <v>24868</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>54508</v>
+        <v>53718</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28575</v>
+        <v>28823</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>52132</v>
+        <v>51431</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23841</v>
+        <v>24015</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38438</v>
+        <v>38697</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>47134</v>
+        <v>47411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>82116</v>
+        <v>84494</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10233</v>
+        <v>9617</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21788</v>
+        <v>22364</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5492</v>
+        <v>5931</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13555</v>
+        <v>13474</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18577</v>
+        <v>17844</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>40561</v>
+        <v>40104</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24975</v>
+        <v>24130</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40250</v>
+        <v>41340</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18723</v>
+        <v>18128</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28623</v>
+        <v>29179</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38653</v>
+        <v>37077</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>63715</v>
+        <v>65002</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8339</v>
+        <v>7974</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11245</v>
+        <v>10740</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8256</v>
+        <v>8454</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11622</v>
+        <v>11067</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19428</v>
+        <v>19819</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25964</v>
+        <v>25247</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25099</v>
+        <v>25545</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27243</v>
+        <v>26917</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23408</v>
+        <v>23727</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27649</v>
+        <v>26428</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>41306</v>
+        <v>42235</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47411</v>
+        <v>48740</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10892</v>
+        <v>9810</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6590</v>
+        <v>6260</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13895</v>
+        <v>13838</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7007</v>
+        <v>6966</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>27732</v>
+        <v>27012</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16857</v>
+        <v>16889</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26839</v>
+        <v>25816</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20055</v>
+        <v>19902</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28857</v>
+        <v>27728</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18883</v>
+        <v>19143</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>49836</v>
+        <v>48062</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>35181</v>
+        <v>34626</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3671</v>
+        <v>3761</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>18512</v>
+        <v>18313</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1966</v>
+        <v>1889</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>15271</v>
+        <v>14988</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6761</v>
+        <v>7036</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>38602</v>
+        <v>38083</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14047</v>
+        <v>14256</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>35866</v>
+        <v>35612</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10746</v>
+        <v>11280</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>30892</v>
+        <v>30594</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>21115</v>
+        <v>20122</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>62592</v>
+        <v>61795</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>27150</v>
+        <v>27774</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>124171</v>
+        <v>120246</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>20366</v>
+        <v>20703</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>113092</v>
+        <v>111033</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>53189</v>
+        <v>52571</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>246961</v>
+        <v>248305</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>49213</v>
+        <v>51131</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>163874</v>
+        <v>162162</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>41736</v>
+        <v>41596</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>147255</v>
+        <v>145958</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>86454</v>
+        <v>83787</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>301337</v>
+        <v>300301</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>32146</v>
+        <v>31631</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>16104</v>
+        <v>15520</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>27320</v>
+        <v>27171</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>26232</v>
+        <v>25668</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>65844</v>
+        <v>64969</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>47161</v>
+        <v>46104</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>57416</v>
+        <v>58519</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>35625</v>
+        <v>35837</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>52141</v>
+        <v>50433</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>48130</v>
+        <v>47906</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>100788</v>
+        <v>99339</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>77163</v>
+        <v>76844</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
     </row>
     <row r="40">
